--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wetaxtop</t>
+          <t>neat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wind Energy Taxonomy</t>
+          <t>NEAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -763,10 +763,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -788,12 +792,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>2020-12-01T00:00:00+01:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -817,7 +821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -846,25 +850,69 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020-12-01T00:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>skos:prefLabel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>neat:IEVref</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -875,69 +923,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>neat:IEVref</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>IEV ref</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>rdf:Property</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rdfs:label</t>
+          <t>IEV ref</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>wetaxtop:IEVref</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
+          <t>A code used to identify certain concept in IEC Electropedia (http://www.electropedia.org/)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -948,39 +968,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wetaxtop:IEVref</t>
+          <t>neat:Economics</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IEV ref</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>rdf:Property</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>IEV ref</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A code used to identify certain concept in IEC Electropedia (http://www.electropedia.org/)</t>
-        </is>
-      </c>
+          <t>Economics</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>http://orcid.org/0000-0003-4124-9040, https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -993,24 +1005,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wetaxtop:Economics</t>
+          <t>neat:BusinessModels</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Business Models</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A  conceptual structure that supports the viability of wind energy projects and details how they operate to create profit.</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>neat:Economics</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040, https://orcid.org/0000-0002-9381-9693</t>
+          <t>http://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1030,25 +1050,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>wetaxtop:BusinessModels</t>
+          <t>neat:LevelizedCostofEnergyModels</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Business Models</t>
+          <t>Levelized Cost of Energy Models</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A  conceptual structure that supports the viability of wind energy projects and details how they operate to create profit.</t>
+          <t>An expression of the production cost of each unit of electricity generated over the working life of the plant taking into account wind farm development costs, capital investment, financial costs and lifetime running costs.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>wetaxtop:Economics</t>
+          <t>neat:Economics</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1075,25 +1095,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wetaxtop:LevelizedCostofEnergyModels</t>
+          <t>neat:ProjectFinance</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Levelized Cost of Energy Models</t>
+          <t>Project Finance</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>An expression of the production cost of each unit of electricity generated over the working life of the plant taking into account wind farm development costs, capital investment, financial costs and lifetime running costs.</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>wetaxtop:Economics</t>
+          <t>neat:Economics</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1120,12 +1136,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wetaxtop:ProjectFinance</t>
+          <t>neat:MarketModels</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Project Finance</t>
+          <t>Market Models</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1134,7 +1150,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>wetaxtop:Economics</t>
+          <t>neat:Economics</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1161,12 +1177,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>wetaxtop:MarketModels</t>
+          <t>neat:SupportSchemes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Market Models</t>
+          <t>Support Schemes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1175,7 +1191,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>wetaxtop:Economics</t>
+          <t>neat:Economics</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1202,24 +1218,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>wetaxtop:SupportSchemes</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Support Schemes</t>
+          <t>Operation &amp; Maintenance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Combination of all technical and management actions intended to retain an item in, or restore it to, a state in which it can perform as required.</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>wetaxtop:Economics</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>192-06</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
@@ -1243,26 +1263,30 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wetaxtop:OperationMaintenance</t>
+          <t>neat:Commissioning</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Operation &amp; Maintenance</t>
+          <t>Commissioning</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Combination of all technical and management actions intended to retain an item in, or restore it to, a state in which it can perform as required.</t>
+          <t>Activities undertaken to prepare a system or product prior to demonstrating that it meets its specified requirements.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>neat:OperationMaintenance</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>192-06</t>
+          <t>821-12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1276,7 +1300,11 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SOURCE: IEC 62278:2002, 3.50</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1288,30 +1316,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>wetaxtop:Commissioning</t>
+          <t>neat:Decommissioning</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Commissioning</t>
+          <t>Decommissioning</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Activities undertaken to prepare a system or product prior to demonstrating that it meets its specified requirements.</t>
+          <t>Administrative and technical actions taken to allow the removal of some or all of the regulatory controls from a facility</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>wetaxtop:OperationMaintenance</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>821-12</t>
+          <t>395-08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1325,11 +1353,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>SOURCE: IEC 62278:2002, 3.50</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1341,30 +1365,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wetaxtop:Decommissioning</t>
+          <t>neat:EndofLifeExtension</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Decommissioning</t>
+          <t>End-of-Life Extension</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Administrative and technical actions taken to allow the removal of some or all of the regulatory controls from a facility</t>
+          <t>When the life cycle stage of a product instead of end is extended for a certain period.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>wetaxtop:OperationMaintenance</t>
+          <t>neat:Decommissioning</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>395-08</t>
+          <t>904-01-17</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1390,32 +1414,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>wetaxtop:EndofLifeExtension</t>
+          <t>neat:ReCertification</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>End-of-Life Extension</t>
+          <t>Re-Certification</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>When the life cycle stage of a product instead of end is extended for a certain period.</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>wetaxtop:Decommissioning</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>904-01-17</t>
-        </is>
-      </c>
+          <t>neat:EndofLifeExtension</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
@@ -1439,12 +1455,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>wetaxtop:ReCertification</t>
+          <t>neat:Recycling</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Re-Certification</t>
+          <t>Recycling</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1453,7 +1469,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>wetaxtop:EndofLifeExtension</t>
+          <t>neat:EndofLifeExtension</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1480,21 +1496,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>wetaxtop:Recycling</t>
+          <t>neat:Repowering</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Recycling</t>
+          <t>Repowering</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Wind turbines are dismantled and new wind turbines are installed in a brownfield and/or greenfield site.</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>wetaxtop:EndofLifeExtension</t>
+          <t>neat:EndofLifeExtension</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1521,25 +1541,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>wetaxtop:Repowering</t>
+          <t>neat:Revamping</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Repowering</t>
+          <t>Revamping</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wind turbines are dismantled and new wind turbines are installed in a brownfield and/or greenfield site.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>An act of upgrading certain components of a wind turbine to extend the overall life time of the turbine (e.g. generator). The overall external layout of the farm remains unchanged (e.g. hub height, siting, size). Revamping differs from a normal operation and maintenance activities. New technology is installed or components are replaced instead of the initial equipment of the turbine.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lifetime Extension, Refurbishment, Enhancement, Reactivation</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>wetaxtop:EndofLifeExtension</t>
+          <t>neat:EndofLifeExtension</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1566,29 +1590,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>wetaxtop:Revamping</t>
+          <t>neat:Forecasting</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Revamping</t>
+          <t>Forecasting</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>An act of upgrading certain components of a wind turbine to extend the overall life time of the turbine (e.g. generator). The overall external layout of the farm remains unchanged (e.g. hub height, siting, size). Revamping differs from a normal operation and maintenance activities. New technology is installed or components are replaced instead of the initial equipment of the turbine.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Lifetime Extension, Refurbishment, Enhancement, Reactivation</t>
-        </is>
-      </c>
+          <t>An estimate of the expected parameter from a system at a given future date.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>wetaxtop:EndofLifeExtension</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1615,25 +1635,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wetaxtop:Forecasting</t>
+          <t>neat:HealthSafety</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Forecasting</t>
+          <t>Health &amp; Safety</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>An estimate of the expected parameter from a system at a given future date.</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>wetaxtop:OperationMaintenance</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1660,21 +1676,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wetaxtop:HealthSafety</t>
+          <t>neat:Installation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Health &amp; Safety</t>
+          <t>Installation</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>An apparatus or a set of devices and/or apparatuses associated in a given location to fulfil specified purposes, including all means for their satisfactory operation</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>wetaxtop:OperationMaintenance</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1701,28 +1721,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wetaxtop:Installation</t>
+          <t>neat:MaintenanceScheduling</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Installation</t>
+          <t>Maintenance Scheduling</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>An apparatus or a set of devices and/or apparatuses associated in a given location to fulfil specified purposes, including all means for their satisfactory operation</t>
+          <t>A maintenance carried out in accordance with a specified schedule, which can identify the need for some corrective maintenance action.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>wetaxtop:OperationMaintenance</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>neat:OperationMaintenance</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>192-06</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
@@ -1746,32 +1770,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wetaxtop:MaintenanceScheduling</t>
+          <t>neat:Siting</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Maintenance Scheduling</t>
+          <t>Siting</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A maintenance carried out in accordance with a specified schedule, which can identify the need for some corrective maintenance action.</t>
+          <t>A process of evaluating a number of factor before deciding to pursue development of a new wind farm project. These factors include: wind resource and compatibility of land/area, environmental impacts and community input (i.e., social acceptance)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>wetaxtop:OperationMaintenance</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>192-06</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
@@ -1795,24 +1811,36 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
+          <t>neat:DesignConditions</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Siting</t>
+          <t>Design Conditions</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A process of evaluating a number of factor before deciding to pursue development of a new wind farm project. These factors include: wind resource and compatibility of land/area, environmental impacts and community input (i.e., social acceptance)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+          <t>A possible mode of wind turbine operation, e.g. power production, parking etc.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Design Situation</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>neat:Siting</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>415-02</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
@@ -1836,40 +1864,36 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>wetaxtop:DesignConditions</t>
+          <t>neat:Turbulence</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Design Conditions</t>
+          <t>Turbulence</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A possible mode of wind turbine operation, e.g. power production, parking etc.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Design Situation</t>
-        </is>
-      </c>
+          <t>Random variations in velocity within a liquid or gaseous medium which may induce heterogeneous values of certain characteristics of the medium, such as refractive index.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
+          <t>neat:DesignConditions</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>415-02</t>
+          <t>705-04</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>http://orcid.org/0000-0003-4124-9041</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1889,36 +1913,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>wetaxtop:Turbulence</t>
+          <t>neat:Infrastructures</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Turbulence</t>
+          <t>Infrastructures</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Random variations in velocity within a liquid or gaseous medium which may induce heterogeneous values of certain characteristics of the medium, such as refractive index.</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>wetaxtop:DesignConditions</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>705-04</t>
-        </is>
-      </c>
+          <t>neat:Siting</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9041</t>
+          <t>http://orcid.org/0000-0003-4124-9042</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1938,28 +1954,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wetaxtop:Infrastructures</t>
+          <t>neat:LongTermExtrapolation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Infrastructures</t>
+          <t>Long-Term Extrapolation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Long-term extrapolation involves making statistical forecasts by using historical trends that are projected for a specified period of time into the future.This type of extrapolation is only used for time-series forecasts.</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
+          <t>neat:Siting</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9042</t>
+          <t>http://orcid.org/0000-0003-4124-9043</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1979,32 +1999,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>wetaxtop:LongTermExtrapolation</t>
+          <t>neat:ResourceAssessment</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Long-Term Extrapolation</t>
+          <t>Resource Assessment</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Long-term extrapolation involves making statistical forecasts by using historical trends that are projected for a specified period of time into the future.This type of extrapolation is only used for time-series forecasts.</t>
+          <t>An estimate of the total energy production of a wind turbine generator system during a one-year period by applying the power curve to different reference wind speed frequency distributions at hub height, assuming 100% availability.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>neat:Siting</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>351-42</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9043</t>
+          <t>http://orcid.org/0000-0003-4124-9044</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2024,36 +2048,28 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>wetaxtop:ResourceAssessment</t>
+          <t>neat:SpatialPlanning</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Resource Assessment</t>
+          <t>Spatial Planning</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>An estimate of the total energy production of a wind turbine generator system during a one-year period by applying the power curve to different reference wind speed frequency distributions at hub height, assuming 100% availability.</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>351-42</t>
-        </is>
-      </c>
+          <t>neat:Siting</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9044</t>
+          <t>http://orcid.org/0000-0003-4124-9045</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2073,28 +2089,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>wetaxtop:SpatialPlanning</t>
+          <t>neat:EnviromentalImpact</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Spatial Planning</t>
+          <t>Enviromental Impact</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A change to the environment, whether adverse or beneficial, wholly or partly resulting from environmental aspects.</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>neat:SpatialPlanning</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>904-01</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9045</t>
+          <t>http://orcid.org/0000-0003-4124-9046</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2102,7 +2126,11 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>SOURCE: IEC Guide 109:2012, 3.5, modified – The expression "an organization's" has been omitted.</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2114,36 +2142,28 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>wetaxtop:EnviromentalImpact</t>
+          <t>neat:NatureImpacts</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Enviromental Impact</t>
+          <t>Nature Impacts</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>A change to the environment, whether adverse or beneficial, wholly or partly resulting from environmental aspects.</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>wetaxtop:SpatialPlanning</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>904-01</t>
-        </is>
-      </c>
+          <t>neat:EnviromentalImpact</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9046</t>
+          <t>http://orcid.org/0000-0003-4124-9047</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2151,11 +2171,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>SOURCE: IEC Guide 109:2012, 3.5, modified – The expression "an organization's" has been omitted.</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2167,28 +2183,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>wetaxtop:NatureImpacts</t>
+          <t>neat:NoisePerception</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nature Impacts</t>
+          <t>Noise Perception</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Individual perception of the acoustic noise level produced by a machine under specified conditions of operation and measurement.</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>wetaxtop:EnviromentalImpact</t>
+          <t>neat:EnviromentalImpact</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9047</t>
+          <t>http://orcid.org/0000-0003-4124-9048</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2208,32 +2228,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>wetaxtop:NoisePerception</t>
+          <t>neat:SocialAcceptance</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Noise Perception</t>
+          <t>Social Acceptance</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Individual perception of the acoustic noise level produced by a machine under specified conditions of operation and measurement.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Community Input</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>wetaxtop:EnviromentalImpact</t>
+          <t>neat:EnviromentalImpact</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9048</t>
+          <t>http://orcid.org/0000-0003-4124-9049</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2253,32 +2273,28 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>wetaxtop:SocialAcceptance</t>
+          <t>neat:LegalAspects</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Social Acceptance</t>
+          <t>Legal Aspects</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Community Input</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>wetaxtop:EnviromentalImpact</t>
+          <t>neat:SpatialPlanning</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9049</t>
+          <t>http://orcid.org/0000-0003-4124-9050</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2298,28 +2314,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>wetaxtop:LegalAspects</t>
+          <t>neat:WindAtlas</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Legal Aspects</t>
+          <t>Wind Atlas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A wind atlas is a systematic and comprehensive collection of generalized wind climates derived by the wind atlas methodology.</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>wetaxtop:SpatialPlanning</t>
+          <t>neat:Siting</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9050</t>
+          <t>http://orcid.org/0000-0003-4124-9051</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2339,32 +2359,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>wetaxtop:WindAtlas</t>
+          <t>neat:WindMapping</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wind Atlas</t>
+          <t>Wind Mapping</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A wind atlas is a systematic and comprehensive collection of generalized wind climates derived by the wind atlas methodology.</t>
+          <t>A process of visualizing spatial variation of wind speed over geographic areas to help choosing prospective development areas for wind turbines installation.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>wetaxtop:Siting</t>
+          <t>neat:Siting</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9051</t>
+          <t>http://orcid.org/0000-0003-4124-9052</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2384,32 +2404,28 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>wetaxtop:WindMapping</t>
+          <t>neat:WindPowerPlant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wind Mapping</t>
+          <t>Wind Power Plant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A process of visualizing spatial variation of wind speed over geographic areas to help choosing prospective development areas for wind turbines installation.</t>
+          <t>A power station comprising a group or groups of wind turbines.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>wetaxtop:Siting</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9052</t>
+          <t>http://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2429,28 +2445,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>wetaxtop:WindPowerPlant</t>
+          <t>neat:AncillaryServices</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wind Power Plant</t>
+          <t>Ancillary Services</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A power station comprising a group or groups of wind turbines.</t>
+          <t>Services necessary for the operation of an electric power system provided by the system operator and/or by power system users.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>neat:WindPowerPlant</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>http://orcid.org/0000-0003-4124-9049</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2459,7 +2479,11 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>System ancillary services may include the participation in frequency regulation, reactive power regulation, active power reservation, etc.</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -2470,32 +2494,36 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>wetaxtop:AncillaryServices</t>
+          <t>neat:GridConnection</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ancillary Services</t>
+          <t>Grid Connection</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Services necessary for the operation of an electric power system provided by the system operator and/or by power system users.</t>
+          <t>A connection to an electric power network.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>wetaxtop:WindPowerPlant</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>neat:WindPowerPlant</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>692-01-03</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9049</t>
+          <t>http://orcid.org/0000-0003-4124-9050</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2504,11 +2532,7 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>System ancillary services may include the participation in frequency regulation, reactive power regulation, active power reservation, etc.</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -2519,36 +2543,28 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>wetaxtop:GridConnection</t>
+          <t>neat:ArrayCables</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Grid Connection</t>
+          <t>Array Cables</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>A connection to an electric power network.</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>wetaxtop:WindPowerPlant</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>692-01-03</t>
-        </is>
-      </c>
+          <t>neat:GridConnection</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9050</t>
+          <t>http://orcid.org/0000-0003-4124-9051</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2568,28 +2584,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>wetaxtop:ArrayCables</t>
+          <t>neat:Substation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Array Cables</t>
+          <t>Substation</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>A part of a power system, concentrated in a given place, including mainly the terminations of transmission or distribution lines switchgear and housing and which may also include transformers. It generally includes facilities necessary for system security and control (e.g. the protective devices).</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>wetaxtop:GridConnection</t>
+          <t>neat:GridConnection</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9051</t>
+          <t>http://orcid.org/0000-0003-4124-9052</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2598,7 +2618,11 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>According to the nature of the system within which the substation is included, a prefix may qualify it.</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -2609,32 +2633,36 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>wetaxtop:Substation</t>
+          <t>neat:TransmissionSystem</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Substation</t>
+          <t>Transmission System</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A part of a power system, concentrated in a given place, including mainly the terminations of transmission or distribution lines switchgear and housing and which may also include transformers. It generally includes facilities necessary for system security and control (e.g. the protective devices).</t>
+          <t>Whole of the means of transmission, comprising the transmission medium, terminal equipment, any necessary intermediate equipment and any equipment provided for such ancillary purposes as power feeding, supervision and testing.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>wetaxtop:GridConnection</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>neat:GridConnection</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9052</t>
+          <t>http://orcid.org/0000-0003-4124-9053</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2645,7 +2673,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>According to the nature of the system within which the substation is included, a prefix may qualify it.</t>
+          <t>A transmission system is in accordance with a set of principles that is also called “transmission system” (see IEV 704-04-10).</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -2658,36 +2686,40 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>wetaxtop:TransmissionSystem</t>
+          <t>neat:Loads</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transmission System</t>
+          <t>Loads</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Whole of the means of transmission, comprising the transmission medium, terminal equipment, any necessary intermediate equipment and any equipment provided for such ancillary purposes as power feeding, supervision and testing.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>A combination of design situations and external conditions which result in a structural loading.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Load Cases</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>wetaxtop:GridConnection</t>
+          <t>neat:WindPowerPlant</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>415-02</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9053</t>
+          <t>http://orcid.org/0000-0003-4124-9054</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2696,11 +2728,7 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>A transmission system is in accordance with a set of principles that is also called “transmission system” (see IEV 704-04-10).</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -2711,40 +2739,28 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>wetaxtop:Loads</t>
+          <t>neat:Performance</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Loads</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>A combination of design situations and external conditions which result in a structural loading.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Load Cases</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>wetaxtop:WindPowerPlant</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>415-02</t>
-        </is>
-      </c>
+          <t>neat:WindPowerPlant</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9054</t>
+          <t>http://orcid.org/0000-0003-4124-9055</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2764,28 +2780,36 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>wetaxtop:Performance</t>
+          <t>neat:WindFarm</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Wind Farm</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A group of wind turbine generator jointly operated.</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>wetaxtop:WindPowerPlant</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>neat:WindPowerPlant</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>415-01</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9055</t>
+          <t>http://orcid.org/0000-0003-4124-9056</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2805,36 +2829,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>wetaxtop:WindFarm</t>
+          <t>neat:Wakes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wind Farm</t>
+          <t>Wakes</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A group of wind turbine generator jointly operated.</t>
+          <t>A region behind the wind turbine with reduced wind speed and increased turbulence due to the extraction of energy from the wind when the flow pass through the rotor.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>wetaxtop:WindPowerPlant</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>415-01</t>
-        </is>
-      </c>
+          <t>neat:WindFarm</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9056</t>
+          <t>http://orcid.org/0000-0003-4124-9057</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2854,32 +2874,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>wetaxtop:Wakes</t>
+          <t>neat:WindFarmControl</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wakes</t>
+          <t>Wind Farm Control</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A region behind the wind turbine with reduced wind speed and increased turbulence due to the extraction of energy from the wind when the flow pass through the rotor.</t>
+          <t>A sub‑system that receives information about the condition of the wind farm and/or its environment and adjusts the turbines in order to operate them within their operating limits.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>wetaxtop:WindFarm</t>
+          <t>neat:WindFarm</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9057</t>
+          <t>http://orcid.org/0000-0003-4124-9058</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2899,32 +2919,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>wetaxtop:WindFarmControl</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wind Farm Control</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A sub‑system that receives information about the condition of the wind farm and/or its environment and adjusts the turbines in order to operate them within their operating limits.</t>
+          <t>A rotating machinery in which the kinetic wind energy is transformed into another form of energy.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>wetaxtop:WindFarm</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9058</t>
+          <t>http://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2944,28 +2960,32 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Concept Design</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A rotating machinery in which the kinetic wind energy is transformed into another form of energy.</t>
+          <t>An activity applied in order to analyse and transform specified requirements into acceptable design solutions.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>neat:WindTurbine</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>http://orcid.org/0000-0003-4124-9057</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2973,7 +2993,11 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>This entry was numbered 351-21-29 in IEC 60050-351:2006.</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -2985,32 +3009,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>wetaxtop:ConceptDesign</t>
+          <t>neat:Aerial</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Concept Design</t>
+          <t>Aerial</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>An activity applied in order to analyse and transform specified requirements into acceptable design solutions.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>An aerial wind turbine is a design concept for a wind turbine with a rotor supported in the air without a tower, thus benefiting from more mechanical and aerodynamic options, the higher velocity and persistence of wind at high altitudes.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Airborne</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9057</t>
+          <t>http://orcid.org/0000-0003-4124-9058</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3018,11 +3046,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>This entry was numbered 351-21-29 in IEC 60050-351:2006.</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3034,36 +3058,32 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>wetaxtop:Aerial</t>
+          <t>neat:HorizontalAxis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aerial</t>
+          <t>Horizontal Axis</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>An aerial wind turbine is a design concept for a wind turbine with a rotor supported in the air without a tower, thus benefiting from more mechanical and aerodynamic options, the higher velocity and persistence of wind at high altitudes.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Airborne</t>
-        </is>
-      </c>
+          <t>A wind turbine which rotor axis is horizontal.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>wetaxtop:ConceptDesign</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9058</t>
+          <t>http://orcid.org/0000-0003-4124-9059</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3083,32 +3103,32 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>wetaxtop:HorizontalAxis</t>
+          <t>neat:MonoMultiRotor</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Horizontal Axis</t>
+          <t>Mono-Multi Rotor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A wind turbine which rotor axis is horizontal.</t>
+          <t>A wind turbine with one or more rotors, independent on the number of blades.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>wetaxtop:ConceptDesign</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9059</t>
+          <t>http://orcid.org/0000-0003-4124-9060</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3128,32 +3148,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>wetaxtop:MonoMultiRotor</t>
+          <t>neat:VerticalAxis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mono-Multi Rotor</t>
+          <t>Vertical Axis</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A wind turbine with one or more rotors, independent on the number of blades.</t>
+          <t>A wind turbine which rotor axis is vertical.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>wetaxtop:ConceptDesign</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9060</t>
+          <t>http://orcid.org/0000-0003-4124-9061</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3173,32 +3193,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>wetaxtop:VerticalAxis</t>
+          <t>neat:Controls</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vertical Axis</t>
+          <t>Controls</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A wind turbine which rotor axis is vertical.</t>
+          <t>A purposeful action on or in a process to meet specified objectives.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>wetaxtop:ConceptDesign</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9061</t>
+          <t>http://orcid.org/0000-0003-4124-9062</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3218,32 +3238,28 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>wetaxtop:Controls</t>
+          <t>neat:BlackBox</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Controls</t>
+          <t>Black-Box</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>A purposeful action on or in a process to meet specified objectives.</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
+          <t>neat:Controls</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9062</t>
+          <t>http://orcid.org/0000-0003-4124-9063</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3263,28 +3279,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wetaxtop:BlackBox</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Black-Box</t>
+          <t>Nacelle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A housing which contains the drive‑train and other elements on top of a horizontal axis wind turbine tower.</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>wetaxtop:Controls</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9063</t>
+          <t>http://orcid.org/0000-0003-4124-9064</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3304,32 +3324,36 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
+          <t>neat:Cooling</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nacelle</t>
+          <t>Cooling</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A housing which contains the drive‑train and other elements on top of a horizontal axis wind turbine tower.</t>
+          <t>A procedure by means of which heat resulting from losses occurring in a machine is given up to a primary coolant which may be continuously replaced or may itself be cooled by a secondary coolant in a heat exchanger.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>neat:Nacelle</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>411-44</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9064</t>
+          <t>http://orcid.org/0000-0003-4124-9065</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3349,36 +3373,32 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>wetaxtop:Cooling</t>
+          <t>neat:Gearbox</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cooling</t>
+          <t>Gearbox</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A procedure by means of which heat resulting from losses occurring in a machine is given up to a primary coolant which may be continuously replaced or may itself be cooled by a secondary coolant in a heat exchanger.</t>
+          <t>A protective casing providing a reservoir of oil or grease for the gearing.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>411-44</t>
-        </is>
-      </c>
+          <t>neat:Nacelle</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9065</t>
+          <t>http://orcid.org/0000-0003-4124-9066</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3398,32 +3418,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wetaxtop:Gearbox</t>
+          <t>neat:Generator</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gearbox</t>
+          <t>Generator</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A protective casing providing a reservoir of oil or grease for the gearing.</t>
+          <t>A machine which converts mechanical energy into electrical energy.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9066</t>
+          <t>http://orcid.org/0000-0003-4124-9067</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3443,32 +3463,28 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wetaxtop:Generator</t>
+          <t>neat:MainShaft</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Generator</t>
+          <t>Main Shaft</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>A machine which converts mechanical energy into electrical energy.</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9067</t>
+          <t>http://orcid.org/0000-0003-4124-9068</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3488,28 +3504,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>wetaxtop:MainShaft</t>
+          <t>neat:PowerElectronics</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Main Shaft</t>
+          <t>Power Electronics</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>A field of electronics which deals with the conversion or switching of electric power with or without control of that power.</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9068</t>
+          <t>http://orcid.org/0000-0003-4124-9069</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3529,32 +3549,32 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>wetaxtop:PowerElectronics</t>
+          <t>neat:TurbineControl</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Power Electronics</t>
+          <t>Turbine Control</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A field of electronics which deals with the conversion or switching of electric power with or without control of that power.</t>
+          <t>A wind turbine sub‑system that receives information about the condition of the wind turbine and/or its environment and adjusts the turbine in order to operate it within its operating limits.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9069</t>
+          <t>http://orcid.org/0000-0003-4124-9070</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3574,32 +3594,32 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>wetaxtop:TurbineControl</t>
+          <t>neat:Rotor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Turbine Control</t>
+          <t>Rotor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A wind turbine sub‑system that receives information about the condition of the wind turbine and/or its environment and adjusts the turbine in order to operate it within its operating limits.</t>
+          <t>One of the main part of a wind turbine</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>wetaxtop:Nacelle</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9070</t>
+          <t>http://orcid.org/0000-0003-4124-9071</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -3619,32 +3639,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>wetaxtop:Rotor</t>
+          <t>neat:Blades</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rotor</t>
+          <t>Blades</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>One of the main part of a wind turbine</t>
+          <t>Components of a wind turbine that harness wind energy and drive the rotor of a wind turbine.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
+          <t>neat:Rotor</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9071</t>
+          <t>http://orcid.org/0000-0003-4124-9072</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3664,32 +3684,32 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>wetaxtop:Blades</t>
+          <t>neat:Hub</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Blades</t>
+          <t>Hub</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Components of a wind turbine that harness wind energy and drive the rotor of a wind turbine.</t>
+          <t>A fixture for attaching the blades or blade assembly to the rotor shaft.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>wetaxtop:Rotor</t>
+          <t>neat:Rotor</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9072</t>
+          <t>http://orcid.org/0000-0003-4124-9073</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -3709,32 +3729,32 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>wetaxtop:Hub</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hub</t>
+          <t>Support Structure</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A fixture for attaching the blades or blade assembly to the rotor shaft.</t>
+          <t>A part of a wind turbine comprising the tower and foundation.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>wetaxtop:Rotor</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9073</t>
+          <t>http://orcid.org/0000-0003-4124-9074</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3754,32 +3774,28 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>wetaxtop:SupportStructure</t>
+          <t>neat:Floating</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Support Structure</t>
+          <t>Floating</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>A part of a wind turbine comprising the tower and foundation.</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9074</t>
+          <t>http://orcid.org/0000-0003-4124-9075</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -3799,28 +3815,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>wetaxtop:Floating</t>
+          <t>neat:Foundation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Floating</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>A structure set in the ground, to which the base of a support is attached to provide the necessary anchorage to withstand all applied loads.</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>wetaxtop:SupportStructure</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9075</t>
+          <t>http://orcid.org/0000-0003-4124-9076</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3840,32 +3860,28 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>wetaxtop:Foundation</t>
+          <t>neat:MooringLines</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Mooring Lines</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>A structure set in the ground, to which the base of a support is attached to provide the necessary anchorage to withstand all applied loads.</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>wetaxtop:SupportStructure</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9076</t>
+          <t>http://orcid.org/0000-0003-4124-9077</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3885,12 +3901,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>wetaxtop:MooringLines</t>
+          <t>neat:Substructure</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mooring Lines</t>
+          <t>Substructure</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3899,14 +3915,14 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>wetaxtop:SupportStructure</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9077</t>
+          <t>http://orcid.org/0000-0003-4124-9078</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3926,28 +3942,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>wetaxtop:Substructure</t>
+          <t>neat:Tower</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Substructure</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A support which may be made of such material as steel, wood, concrete, and comprising a body which is normally four-sided, and cross-arms.</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>wetaxtop:SupportStructure</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9078</t>
+          <t>http://orcid.org/0000-0003-4124-9079</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -3967,32 +3987,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>wetaxtop:Tower</t>
+          <t>neat:Tubular</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>Tubular</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A support which may be made of such material as steel, wood, concrete, and comprising a body which is normally four-sided, and cross-arms.</t>
+          <t>A structure of a tower having the form or shape of a tube slightly conical (i.e. with their diameter increasing towards the base) in order to increase their strength and to save materials at the same time.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>wetaxtop:WindTurbine</t>
+          <t>neat:Tower</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9079</t>
+          <t>http://orcid.org/0000-0003-4124-9080</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4012,32 +4032,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>wetaxtop:Tubular</t>
+          <t>neat:Lattice</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tubular</t>
+          <t>Lattice</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A structure of a tower having the form or shape of a tube slightly conical (i.e. with their diameter increasing towards the base) in order to increase their strength and to save materials at the same time.</t>
+          <t>A structure consisting of strips of wood or metal crossed and fastened together with square-shaped spaces left between, used as a support for climbing plants.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>wetaxtop:Tower</t>
+          <t>neat:Tower</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9080</t>
+          <t>http://orcid.org/0000-0003-4124-9081</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4054,51 +4074,6 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>wetaxtop:Lattice</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Lattice</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>A structure consisting of strips of wood or metal crossed and fastened together with square-shaped spaces left between, used as a support for climbing plants.</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>wetaxtop:Tower</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>http://orcid.org/0000-0003-4124-9081</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Taxonomy of Research Topics in Wind Energy</t>
+          <t>NEAT: Wind  Energy tAxonomy of Topics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
